--- a/BioCalculators_CL_git.xlsx
+++ b/BioCalculators_CL_git.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/changfanlin/Desktop/Gradinaru Lab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3983392B-E3BA-AE4E-BC47-FF6E9CFEE728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12106B82-D83E-1D44-B5C4-C5D11733E1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="500" windowWidth="27640" windowHeight="15780" activeTab="3" xr2:uid="{90CCEDEC-ECFD-D240-B380-C9B6A79B22D4}"/>
+    <workbookView xWindow="1120" yWindow="500" windowWidth="27640" windowHeight="15780" activeTab="2" xr2:uid="{90CCEDEC-ECFD-D240-B380-C9B6A79B22D4}"/>
   </bookViews>
   <sheets>
     <sheet name="PEI-adherent" sheetId="3" r:id="rId1"/>
     <sheet name="PEI-Suspension" sheetId="1" r:id="rId2"/>
     <sheet name="PCR calculator" sheetId="11" r:id="rId3"/>
-    <sheet name="Library gibson calculator" sheetId="13" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="9" state="hidden" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="9" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="87">
   <si>
     <t xml:space="preserve">PEI: DNA ratio </t>
   </si>
@@ -260,81 +259,15 @@
     <t>Collect media in 72 hours and harvest everything in 120 hours</t>
   </si>
   <si>
-    <t>Number of gibson reaction</t>
-  </si>
-  <si>
-    <t>Number of PCR reaction</t>
-  </si>
-  <si>
-    <t>Number of enzyme digestion</t>
-  </si>
-  <si>
-    <t>mole limit of vector *90% (pmol)</t>
-  </si>
-  <si>
-    <t>size of vector (bp)</t>
-  </si>
-  <si>
-    <t>Vector needed per gibson reaction (ng)</t>
-  </si>
-  <si>
-    <t>Insert needed per gibson reaction (ng)</t>
-  </si>
-  <si>
-    <t>Yield per 50 ul PCR reaction (after gel extraction, ng)</t>
-  </si>
-  <si>
-    <t>Yield per 50 ul enzyme digestion (after gel extraction, ng)</t>
-  </si>
-  <si>
-    <t>conversion = mass/(pmol*size)</t>
-  </si>
-  <si>
-    <t>Library product that we needed (ng)</t>
-  </si>
-  <si>
     <t>Input (no need to change everytime)</t>
   </si>
   <si>
     <t>Input (need to change everytime)</t>
   </si>
   <si>
-    <t>size of insert (bp)</t>
-  </si>
-  <si>
-    <t>product generated per gibson reaction (ng)</t>
-  </si>
-  <si>
-    <t>Mole capacity of each gibson reaction (pmol)</t>
-  </si>
-  <si>
     <t>DNA size</t>
   </si>
   <si>
-    <t>ratio of insert/vector</t>
-  </si>
-  <si>
-    <t>size of removed region in vector (bp)</t>
-  </si>
-  <si>
-    <t>Exonuclease V Reaction</t>
-  </si>
-  <si>
-    <t>NEB buffer 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATP </t>
-  </si>
-  <si>
-    <t>H20</t>
-  </si>
-  <si>
-    <t>Exo V required</t>
-  </si>
-  <si>
-    <t>conversion of gibson reaction = product/theoretical product amount (after exo V)</t>
-  </si>
-  <si>
     <t>ddPCR titer</t>
   </si>
   <si>
@@ -363,15 +296,6 @@
   </si>
   <si>
     <t>Serial Dilution</t>
-  </si>
-  <si>
-    <t>Gibson reaction number</t>
-  </si>
-  <si>
-    <t>reaction number (to make H20 volume a positive number)</t>
-  </si>
-  <si>
-    <t>Gibson product solution</t>
   </si>
   <si>
     <t>37 degree, 30 min</t>
@@ -385,7 +309,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -436,20 +360,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -719,7 +629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -788,36 +698,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -825,33 +721,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -862,6 +731,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1286,17 +1174,17 @@
         <f>C7*C8</f>
         <v>40</v>
       </c>
-      <c r="N11" s="82" t="s">
+      <c r="N11" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="O11" s="83"/>
-      <c r="P11" s="83"/>
-      <c r="Q11" s="83"/>
-      <c r="R11" s="83"/>
-      <c r="S11" s="83" t="s">
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="T11" s="84"/>
+      <c r="T11" s="64"/>
     </row>
     <row r="12" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
@@ -1343,13 +1231,13 @@
       <c r="Q13" s="21">
         <v>13.2</v>
       </c>
-      <c r="R13" s="94">
+      <c r="R13" s="65">
         <v>53</v>
       </c>
-      <c r="S13" s="95">
+      <c r="S13" s="66">
         <v>10.6</v>
       </c>
-      <c r="T13" s="96">
+      <c r="T13" s="67">
         <v>55.6</v>
       </c>
     </row>
@@ -1358,29 +1246,29 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="21"/>
-      <c r="R14" s="94"/>
-      <c r="S14" s="95"/>
-      <c r="T14" s="96"/>
+      <c r="R14" s="65"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="67"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B15" s="82" t="s">
+      <c r="B15" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83" t="s">
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="84"/>
+      <c r="H15" s="64"/>
       <c r="N15" s="4"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="21"/>
-      <c r="R15" s="94"/>
-      <c r="S15" s="95"/>
-      <c r="T15" s="96"/>
+      <c r="R15" s="65"/>
+      <c r="S15" s="66"/>
+      <c r="T15" s="67"/>
     </row>
     <row r="16" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
@@ -1407,16 +1295,16 @@
       <c r="N16" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="O16" s="88">
+      <c r="O16" s="58">
         <v>66.2</v>
       </c>
-      <c r="P16" s="89"/>
-      <c r="Q16" s="89"/>
-      <c r="R16" s="89"/>
-      <c r="S16" s="92">
+      <c r="P16" s="59"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="59"/>
+      <c r="S16" s="60">
         <v>66.2</v>
       </c>
-      <c r="T16" s="93"/>
+      <c r="T16" s="61"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
@@ -1432,15 +1320,15 @@
         <f>C11/SUM(D17:D19)*D17/C17</f>
         <v>28.571428571428569</v>
       </c>
-      <c r="F17" s="94">
+      <c r="F17" s="65">
         <f>C10-SUM(E17:E19)</f>
         <v>800</v>
       </c>
-      <c r="G17" s="95">
+      <c r="G17" s="66">
         <f>C12/C5</f>
         <v>160</v>
       </c>
-      <c r="H17" s="96">
+      <c r="H17" s="67">
         <f>C10-G17</f>
         <v>840</v>
       </c>
@@ -1459,9 +1347,9 @@
         <f>C11/SUM(D17:D19)*D18/C18</f>
         <v>114.28571428571428</v>
       </c>
-      <c r="F18" s="94"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="96"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="67"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
@@ -1477,26 +1365,26 @@
         <f>C11/SUM(D17:D19)*D19/C19</f>
         <v>57.142857142857139</v>
       </c>
-      <c r="F19" s="94"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="96"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="67"/>
     </row>
     <row r="20" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="88">
+      <c r="C20" s="58">
         <f>SUM(E17:F19)</f>
         <v>1000</v>
       </c>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="92">
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="60">
         <f>SUM(G17:H19)</f>
         <v>1000</v>
       </c>
-      <c r="H20" s="93"/>
+      <c r="H20" s="61"/>
     </row>
     <row r="21" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
@@ -1520,30 +1408,30 @@
       <c r="C22" s="25">
         <v>4.5999999999999996</v>
       </c>
-      <c r="N22" s="82" t="s">
+      <c r="N22" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="O22" s="83"/>
-      <c r="P22" s="83"/>
-      <c r="Q22" s="83"/>
-      <c r="R22" s="83"/>
-      <c r="S22" s="83" t="s">
+      <c r="O22" s="63"/>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="63"/>
+      <c r="R22" s="63"/>
+      <c r="S22" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="T22" s="84"/>
+      <c r="T22" s="64"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B23" s="82" t="s">
+      <c r="B23" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83" t="s">
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="84"/>
+      <c r="H23" s="64"/>
       <c r="N23" s="4" t="s">
         <v>5</v>
       </c>
@@ -1601,15 +1489,15 @@
         <f>Q13*$O$21</f>
         <v>13.2</v>
       </c>
-      <c r="R24" s="94">
+      <c r="R24" s="65">
         <f>R13*$O$21</f>
         <v>53</v>
       </c>
-      <c r="S24" s="95">
+      <c r="S24" s="66">
         <f>S13*O21</f>
         <v>10.6</v>
       </c>
-      <c r="T24" s="96">
+      <c r="T24" s="67">
         <f>T13*O21</f>
         <v>55.6</v>
       </c>
@@ -1624,15 +1512,15 @@
         <f>E17*$C$22</f>
         <v>131.42857142857142</v>
       </c>
-      <c r="F25" s="85">
+      <c r="F25" s="70">
         <f>F17*C22</f>
         <v>3679.9999999999995</v>
       </c>
-      <c r="G25" s="86">
+      <c r="G25" s="71">
         <f>G17*C22</f>
         <v>736</v>
       </c>
-      <c r="H25" s="87">
+      <c r="H25" s="72">
         <f>H17*C22</f>
         <v>3863.9999999999995</v>
       </c>
@@ -1640,9 +1528,9 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="21"/>
-      <c r="R25" s="94"/>
-      <c r="S25" s="95"/>
-      <c r="T25" s="96"/>
+      <c r="R25" s="65"/>
+      <c r="S25" s="66"/>
+      <c r="T25" s="67"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
@@ -1657,16 +1545,16 @@
         <f t="shared" ref="E26:E27" si="0">E18*$C$22</f>
         <v>525.71428571428567</v>
       </c>
-      <c r="F26" s="85"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="87"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="72"/>
       <c r="N26" s="4"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="21"/>
-      <c r="R26" s="94"/>
-      <c r="S26" s="95"/>
-      <c r="T26" s="96"/>
+      <c r="R26" s="65"/>
+      <c r="S26" s="66"/>
+      <c r="T26" s="67"/>
     </row>
     <row r="27" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
@@ -1678,41 +1566,41 @@
         <f t="shared" si="0"/>
         <v>262.85714285714283</v>
       </c>
-      <c r="F27" s="85"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="87"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="72"/>
       <c r="N27" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="O27" s="88">
+      <c r="O27" s="58">
         <f>O16*O21</f>
         <v>66.2</v>
       </c>
-      <c r="P27" s="89"/>
-      <c r="Q27" s="89"/>
-      <c r="R27" s="89"/>
-      <c r="S27" s="92">
+      <c r="P27" s="59"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="59"/>
+      <c r="S27" s="60">
         <f>S16*O21</f>
         <v>66.2</v>
       </c>
-      <c r="T27" s="93"/>
+      <c r="T27" s="61"/>
     </row>
     <row r="28" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="88">
+      <c r="C28" s="58">
         <f>SUM(E25:F27)</f>
         <v>4600</v>
       </c>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="90">
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="73">
         <f>SUM(G25:H27)</f>
         <v>4600</v>
       </c>
-      <c r="H28" s="91"/>
+      <c r="H28" s="74"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.2">
       <c r="F29" s="7"/>
@@ -1740,22 +1628,22 @@
       <c r="F32" s="31"/>
     </row>
     <row r="33" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="80" t="s">
+      <c r="B33" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
     </row>
     <row r="34" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="81" t="s">
+      <c r="B34" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="81"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="81"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="69"/>
     </row>
     <row r="35" spans="2:6" ht="24" x14ac:dyDescent="0.3">
       <c r="B35" s="32" t="s">
@@ -1787,6 +1675,27 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="R13:R15"/>
+    <mergeCell ref="S13:S15"/>
+    <mergeCell ref="T13:T15"/>
     <mergeCell ref="O27:R27"/>
     <mergeCell ref="S27:T27"/>
     <mergeCell ref="O16:R16"/>
@@ -1796,27 +1705,6 @@
     <mergeCell ref="R24:R26"/>
     <mergeCell ref="S24:S26"/>
     <mergeCell ref="T24:T26"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="R13:R15"/>
-    <mergeCell ref="S13:S15"/>
-    <mergeCell ref="T13:T15"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:H28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1845,13 +1733,13 @@
     <row r="2" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C3" s="48"/>
     </row>
     <row r="4" spans="2:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C4" s="49"/>
     </row>
@@ -1939,7 +1827,7 @@
         <v>70</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
@@ -1972,17 +1860,17 @@
     </row>
     <row r="21" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="82" t="s">
+      <c r="B22" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="83"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83" t="s">
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="84"/>
+      <c r="H22" s="64"/>
       <c r="I22" s="8"/>
       <c r="K22" s="8"/>
     </row>
@@ -2024,15 +1912,15 @@
         <f>C13/SUM(D24:D26)*D24/C24</f>
         <v>43.51521528268696</v>
       </c>
-      <c r="F24" s="94">
+      <c r="F24" s="65">
         <f>C12-SUM(E24:E26)</f>
         <v>525</v>
       </c>
-      <c r="G24" s="95">
+      <c r="G24" s="66">
         <f>C14/C7</f>
         <v>135</v>
       </c>
-      <c r="H24" s="96">
+      <c r="H24" s="67">
         <f>C12-G24</f>
         <v>615</v>
       </c>
@@ -2052,9 +1940,9 @@
         <f>C13/SUM(D24:D26)*D25/C25</f>
         <v>138.4467424005787</v>
       </c>
-      <c r="F25" s="94"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="96"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="67"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
@@ -2070,26 +1958,26 @@
         <f>C13/SUM(D24:D26)*D26/C26</f>
         <v>43.038042316734341</v>
       </c>
-      <c r="F26" s="94"/>
-      <c r="G26" s="95"/>
-      <c r="H26" s="96"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="67"/>
     </row>
     <row r="27" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="88">
+      <c r="C27" s="58">
         <f>SUM(E24:F26)</f>
         <v>750.00000000000011</v>
       </c>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="92">
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="60">
         <f>SUM(G24:H26)</f>
         <v>750</v>
       </c>
-      <c r="H27" s="93"/>
+      <c r="H27" s="61"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="9"/>
@@ -2109,17 +1997,17 @@
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="97" t="s">
+      <c r="B30" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="98"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="98" t="s">
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="H30" s="99"/>
+      <c r="H30" s="77"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
@@ -2154,15 +2042,15 @@
         <f>E24*$C$29</f>
         <v>174.06086113074784</v>
       </c>
-      <c r="F32" s="85">
+      <c r="F32" s="70">
         <f>F24*C29</f>
         <v>2100</v>
       </c>
-      <c r="G32" s="86">
+      <c r="G32" s="71">
         <f>G24*C29</f>
         <v>540</v>
       </c>
-      <c r="H32" s="87">
+      <c r="H32" s="72">
         <f>H24*C29</f>
         <v>2460</v>
       </c>
@@ -2180,9 +2068,9 @@
         <f t="shared" ref="E33:E34" si="0">E25*$C$29</f>
         <v>553.7869696023148</v>
       </c>
-      <c r="F33" s="85"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="87"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="72"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
@@ -2194,26 +2082,26 @@
         <f t="shared" si="0"/>
         <v>172.15216926693736</v>
       </c>
-      <c r="F34" s="85"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="87"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="72"/>
     </row>
     <row r="35" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="88">
+      <c r="C35" s="58">
         <f>SUM(E32:F34)</f>
         <v>3000.0000000000005</v>
       </c>
-      <c r="D35" s="89"/>
-      <c r="E35" s="89"/>
-      <c r="F35" s="89"/>
-      <c r="G35" s="90">
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="73">
         <f>SUM(G32:H34)</f>
         <v>3000</v>
       </c>
-      <c r="H35" s="91"/>
+      <c r="H35" s="74"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F36" s="7"/>
@@ -2240,31 +2128,31 @@
       <c r="F39" s="33"/>
     </row>
     <row r="40" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="80" t="s">
+      <c r="B40" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="80"/>
-      <c r="D40" s="80"/>
-      <c r="E40" s="80"/>
-      <c r="F40" s="80"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
     </row>
     <row r="41" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="81" t="s">
+      <c r="B41" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="81"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="81"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="69"/>
     </row>
     <row r="42" spans="2:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="B42" s="81" t="s">
+      <c r="B42" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C42" s="81"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="81"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
     </row>
     <row r="43" spans="2:8" ht="24" x14ac:dyDescent="0.3">
       <c r="B43" s="29"/>
@@ -2286,6 +2174,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="C35:F35"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="B30:F30"/>
     <mergeCell ref="G30:H30"/>
@@ -2298,11 +2191,6 @@
     <mergeCell ref="H24:H26"/>
     <mergeCell ref="C27:F27"/>
     <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="C35:F35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="59" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -2313,7 +2201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC0B08D4-32B5-E846-8D87-7E0C040463F8}">
   <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" zoomScale="142" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="142" workbookViewId="0">
       <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
@@ -2342,7 +2230,7 @@
         <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -3207,12 +3095,12 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B95" s="1" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="C95" s="2">
         <v>6</v>
@@ -3220,7 +3108,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B96" s="1" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C96" s="2">
         <v>35</v>
@@ -3228,7 +3116,7 @@
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B97" s="1" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C97" s="2">
         <v>100000</v>
@@ -3236,7 +3124,7 @@
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B98" s="1" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C98" s="1">
         <v>10</v>
@@ -3244,7 +3132,7 @@
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B99" s="1" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="C99" s="1">
         <f>C96/C95*C97*C98</f>
@@ -3252,34 +3140,34 @@
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E100" s="77">
+      <c r="E100" s="56">
         <f>E101/C99</f>
         <v>1714.2857142857147</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B101" s="1" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="C101" s="2">
         <v>1487</v>
       </c>
-      <c r="E101" s="76">
+      <c r="E101" s="55">
         <v>10000000000</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B102" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C102" s="75">
+        <v>80</v>
+      </c>
+      <c r="C102" s="54">
         <f>C101*C99</f>
         <v>8674166666.6666641</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B103" s="14" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C103" s="1">
         <v>240</v>
@@ -3287,9 +3175,9 @@
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B104" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C104" s="78">
+        <v>84</v>
+      </c>
+      <c r="C104" s="57">
         <f>C102*C103</f>
         <v>2081799999999.9995</v>
       </c>
@@ -3301,310 +3189,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28BD8F55-0A9D-CA4E-B2EB-0634BFFBB30F}">
-  <dimension ref="B4:C47"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="99" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="76.83203125" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B4" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="55"/>
-    </row>
-    <row r="5" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B5" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="56"/>
-    </row>
-    <row r="6" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B6" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="57"/>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-    </row>
-    <row r="9" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B9" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="59">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B10" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="59">
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B11" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="59">
-        <v>1740</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B12" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="54">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B13" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="54">
-        <f>C12/(C14+1)*0.9</f>
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B14" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" s="54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B15" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="54">
-        <v>0.61790123456790125</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-    </row>
-    <row r="18" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B18" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="54">
-        <f>C15*C13*C10</f>
-        <v>200.2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B19" s="54" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="71">
-        <f>C13*C14*C15*C11</f>
-        <v>129.01777777777778</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B20" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="61">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B21" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="71">
-        <f>(C18+C19/C14)*C20</f>
-        <v>105.88355555555555</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B22" s="60"/>
-      <c r="C22" s="74"/>
-    </row>
-    <row r="23" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B23" s="62"/>
-      <c r="C23" s="60"/>
-    </row>
-    <row r="24" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B24" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="54">
-        <f>2000*C11/1740</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B25" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="72">
-        <f>585*C10/(C10+C9)</f>
-        <v>516.34521085322001</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B26" s="62"/>
-      <c r="C26" s="60"/>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-    </row>
-    <row r="28" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B28" s="58"/>
-      <c r="C28" s="63"/>
-    </row>
-    <row r="29" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
-    </row>
-    <row r="30" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B30" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="56">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
-    </row>
-    <row r="32" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B32" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="66">
-        <f>C30/C21</f>
-        <v>14.16650576314442</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B33" s="67" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="68">
-        <f>C32*C19/C24</f>
-        <v>0.91386554621848748</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="70">
-        <f>C32*C18/C25</f>
-        <v>5.4927099044746104</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="B38" s="73" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B39" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="C39" s="56">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B40" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="C40" s="56">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B42" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="C42" s="56">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B43" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="C43" s="54">
-        <f>5*C40</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B44" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" s="54">
-        <f>5*C40</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B45" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="C45" s="79">
-        <f>C39*(C18+C19)/1000</f>
-        <v>4.6090488888888883</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B46" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="C46" s="71">
-        <f>50*C40-C42-C43-C44-C45</f>
-        <v>15.390951111111111</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B47" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="C47" s="54">
-        <f>C40*50</f>
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944780EC-C8D1-0D49-8808-F54181955EB4}">
   <dimension ref="A1"/>
   <sheetViews>
